--- a/nse_indices_1_dashboard.xlsx
+++ b/nse_indices_1_dashboard.xlsx
@@ -8378,9 +8378,9 @@
         <cfvo type="num" val="-2"/>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="2"/>
-        <color rgb="FFB71C1C"/>
+        <color rgb="FFBE5014"/>
         <color rgb="FFFFF59D"/>
-        <color rgb="FF1B5E20"/>
+        <color rgb="FF92D050"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
@@ -12149,9 +12149,9 @@
         <cfvo type="num" val="-2"/>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="2"/>
-        <color rgb="FFB71C1C"/>
+        <color rgb="FFBE5014"/>
         <color rgb="FFFFF59D"/>
-        <color rgb="FF1B5E20"/>
+        <color rgb="FF92D050"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
